--- a/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumen 3 veces o más al dia verduras, ensaladas y hortalizas</t>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,02; 86,16</t>
+          <t>69,97; 85,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,08; 82,95</t>
+          <t>66,02; 81,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,51; 77,25</t>
+          <t>60,07; 76,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,3; 93,28</t>
+          <t>80,58; 94,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,72; 87,18</t>
+          <t>73,42; 87,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,8; 92,59</t>
+          <t>80,65; 93,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,26; 79,6</t>
+          <t>63,61; 79,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,99; 97,73</t>
+          <t>92,05; 97,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,18; 84,6</t>
+          <t>74,74; 84,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>76,17; 86,13</t>
+          <t>76,39; 86,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63,89; 76,4</t>
+          <t>64,35; 76,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,43; 94,94</t>
+          <t>88,45; 95,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,43; 74,79</t>
+          <t>67,56; 74,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,99; 79,31</t>
+          <t>71,83; 79,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,8; 78,84</t>
+          <t>71,13; 78,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 97,96</t>
+          <t>93,17; 97,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,44; 80,77</t>
+          <t>73,68; 80,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,87; 84,66</t>
+          <t>78,33; 84,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,4; 79,93</t>
+          <t>72,93; 79,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,12; 97,21</t>
+          <t>94,58; 97,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,78; 76,75</t>
+          <t>71,54; 76,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75,93; 81,2</t>
+          <t>76,16; 81,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,3; 78,57</t>
+          <t>73,12; 78,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,73; 97,24</t>
+          <t>94,62; 97,22</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,22; 65,53</t>
+          <t>59,05; 65,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,86; 73,79</t>
+          <t>67,62; 73,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,89; 74,96</t>
+          <t>68,87; 74,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,92; 96,96</t>
+          <t>93,62; 96,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,31; 71,72</t>
+          <t>65,77; 71,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,57; 79,96</t>
+          <t>74,58; 79,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,97; 79,28</t>
+          <t>73,97; 79,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,08; 98,01</t>
+          <t>96,03; 98,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,25; 67,7</t>
+          <t>63,07; 67,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,88; 76,01</t>
+          <t>72,01; 76,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,3; 76,13</t>
+          <t>72,36; 76,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,38; 97,24</t>
+          <t>95,42; 97,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,13; 61,55</t>
+          <t>53,87; 61,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,2; 69,42</t>
+          <t>62,18; 69,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,28</t>
+          <t>63,18; 70,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,31; 94,93</t>
+          <t>90,29; 94,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,21; 74,08</t>
+          <t>67,06; 73,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,39; 77,97</t>
+          <t>71,06; 77,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,44; 76,24</t>
+          <t>69,36; 76,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,0; 96,35</t>
+          <t>92,04; 96,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,78; 66,75</t>
+          <t>61,49; 66,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,86; 72,75</t>
+          <t>67,76; 72,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>67,45; 72,28</t>
+          <t>67,72; 72,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,25</t>
+          <t>91,9; 95,15</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,03; 64,27</t>
+          <t>58,27; 64,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,45; 75,52</t>
+          <t>69,48; 75,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,94; 78,56</t>
+          <t>73,27; 78,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,37; 94,99</t>
+          <t>91,54; 95,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,2; 71,91</t>
+          <t>66,17; 71,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,82; 85,65</t>
+          <t>80,86; 85,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,26; 84,93</t>
+          <t>79,97; 84,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,16; 96,65</t>
+          <t>94,24; 96,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,43; 67,63</t>
+          <t>63,36; 67,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,32; 80,09</t>
+          <t>76,13; 79,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,68; 81,12</t>
+          <t>77,35; 81,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,55; 95,54</t>
+          <t>93,46; 95,55</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,51; 64,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,56; 72,74</t>
+          <t>69,49; 72,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,84; 73,99</t>
+          <t>70,66; 73,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,34; 95,23</t>
+          <t>93,27; 95,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,61; 72,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,86</t>
+          <t>78,18; 80,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,86; 78,75</t>
+          <t>75,95; 78,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,05; 96,44</t>
+          <t>95,1; 96,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,06; 68,31</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,46</t>
+          <t>74,41; 76,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,76; 75,88</t>
+          <t>73,78; 75,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>94,45; 95,62</t>
+          <t>94,51; 95,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,97; 85,23</t>
+          <t>69,72; 85,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,02; 81,6</t>
+          <t>66,6; 82,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,07; 76,91</t>
+          <t>59,95; 77,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,42; 87,25</t>
+          <t>73,85; 87,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,25</t>
+          <t>80,38; 93,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,61; 79,73</t>
+          <t>62,51; 79,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,74; 84,48</t>
+          <t>73,74; 84,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>76,39; 86,25</t>
+          <t>75,94; 86,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>64,35; 76,61</t>
+          <t>63,01; 75,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,56; 74,68</t>
+          <t>67,18; 74,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 79,28</t>
+          <t>72,04; 79,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,13; 78,86</t>
+          <t>71,31; 78,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,68; 80,45</t>
+          <t>73,19; 80,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,33; 84,75</t>
+          <t>78,32; 84,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,93; 79,67</t>
+          <t>72,78; 79,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,54; 76,41</t>
+          <t>71,52; 76,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76,16; 81,19</t>
+          <t>76,12; 80,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,12; 78,38</t>
+          <t>73,18; 78,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,05; 65,24</t>
+          <t>58,82; 64,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,62; 73,52</t>
+          <t>67,74; 73,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,87; 74,56</t>
+          <t>68,92; 74,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,77; 71,69</t>
+          <t>65,36; 71,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,58; 79,9</t>
+          <t>74,26; 79,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,97; 79,1</t>
+          <t>73,87; 79,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,07; 67,52</t>
+          <t>63,26; 67,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,01; 76,0</t>
+          <t>71,96; 76,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,36; 76,28</t>
+          <t>72,2; 76,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,87; 61,84</t>
+          <t>53,99; 62,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,18; 69,19</t>
+          <t>62,09; 69,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,18; 70,48</t>
+          <t>63,22; 70,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,06; 73,87</t>
+          <t>67,11; 73,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,06; 77,33</t>
+          <t>71,45; 78,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,36; 76,29</t>
+          <t>69,86; 76,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,49; 66,87</t>
+          <t>61,67; 66,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,76; 72,68</t>
+          <t>68,13; 72,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>67,72; 72,24</t>
+          <t>67,56; 72,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,27; 64,66</t>
+          <t>58,3; 64,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,48; 75,22</t>
+          <t>69,11; 75,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,27; 78,64</t>
+          <t>73,03; 78,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,17; 71,9</t>
+          <t>66,28; 72,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,86; 85,63</t>
+          <t>80,99; 85,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,97; 84,91</t>
+          <t>80,24; 84,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,36; 67,67</t>
+          <t>63,3; 67,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,13; 79,98</t>
+          <t>76,4; 79,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,35; 81,09</t>
+          <t>77,29; 81,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,51; 64,82</t>
+          <t>61,57; 64,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,49; 72,75</t>
+          <t>69,48; 72,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,66; 73,8</t>
+          <t>70,71; 73,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,61; 72,58</t>
+          <t>69,46; 72,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,18; 80,99</t>
+          <t>78,03; 80,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,95; 78,72</t>
+          <t>75,9; 78,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,06; 68,31</t>
+          <t>66,1; 68,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,41; 76,45</t>
+          <t>74,23; 76,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,78; 75,89</t>
+          <t>73,91; 75,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,72; 85,05</t>
+          <t>70,02; 86,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,6; 82,18</t>
+          <t>67,08; 82,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,95; 77,61</t>
+          <t>60,51; 77,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,58; 94,03</t>
+          <t>79,3; 93,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,85; 87,11</t>
+          <t>73,72; 87,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,38; 93,4</t>
+          <t>79,8; 92,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,51; 79,61</t>
+          <t>62,26; 79,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,05; 97,87</t>
+          <t>91,99; 97,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,74; 84,31</t>
+          <t>74,18; 84,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>75,94; 86,11</t>
+          <t>76,17; 86,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63,01; 75,9</t>
+          <t>63,89; 76,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,45; 95,25</t>
+          <t>88,43; 94,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,18; 74,75</t>
+          <t>67,43; 74,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,04; 79,3</t>
+          <t>71,99; 79,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,31; 78,65</t>
+          <t>70,8; 78,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,17; 97,74</t>
+          <t>93,49; 97,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,19; 80,24</t>
+          <t>73,44; 80,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,32; 84,53</t>
+          <t>77,87; 84,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,78; 79,91</t>
+          <t>72,4; 79,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,58; 97,31</t>
+          <t>94,12; 97,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,52; 76,62</t>
+          <t>71,78; 76,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76,12; 80,95</t>
+          <t>75,93; 81,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,18; 78,67</t>
+          <t>73,3; 78,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,62; 97,22</t>
+          <t>94,73; 97,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,82; 64,89</t>
+          <t>59,22; 65,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,74; 73,98</t>
+          <t>67,86; 73,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,92; 74,7</t>
+          <t>68,89; 74,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,62; 96,95</t>
+          <t>93,92; 96,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,36; 71,87</t>
+          <t>65,31; 71,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,26; 79,97</t>
+          <t>74,57; 79,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,87; 79,25</t>
+          <t>73,97; 79,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,03; 98,04</t>
+          <t>96,08; 98,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,26; 67,66</t>
+          <t>63,25; 67,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,96; 76,02</t>
+          <t>71,88; 76,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,2; 76,14</t>
+          <t>72,3; 76,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,42; 97,19</t>
+          <t>95,38; 97,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,99; 62,12</t>
+          <t>54,13; 61,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,09; 69,62</t>
+          <t>62,2; 69,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,22; 70,2</t>
+          <t>62,79; 70,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,29; 94,93</t>
+          <t>90,31; 94,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,11; 73,86</t>
+          <t>67,21; 74,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,45; 78,15</t>
+          <t>71,39; 77,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,86; 76,53</t>
+          <t>69,44; 76,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,04; 96,37</t>
+          <t>92,0; 96,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,67; 66,82</t>
+          <t>61,78; 66,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>68,13; 72,76</t>
+          <t>67,86; 72,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>67,56; 72,25</t>
+          <t>67,45; 72,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,9; 95,15</t>
+          <t>91,96; 95,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,3; 64,51</t>
+          <t>58,03; 64,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,11; 75,13</t>
+          <t>69,45; 75,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,03; 78,63</t>
+          <t>72,94; 78,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,54; 95,1</t>
+          <t>91,37; 94,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,28; 72,09</t>
+          <t>66,2; 71,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,99; 85,75</t>
+          <t>80,82; 85,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,24; 84,83</t>
+          <t>80,26; 84,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,24; 96,57</t>
+          <t>94,16; 96,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,3; 67,47</t>
+          <t>63,43; 67,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,4; 79,9</t>
+          <t>76,32; 80,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,29; 81,08</t>
+          <t>77,68; 81,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,46; 95,55</t>
+          <t>93,55; 95,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,57; 64,86</t>
+          <t>61,68; 64,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,48; 72,83</t>
+          <t>69,56; 72,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,71; 73,97</t>
+          <t>70,84; 73,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,27; 95,11</t>
+          <t>93,34; 95,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,46; 72,57</t>
+          <t>69,41; 72,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,03; 80,92</t>
+          <t>78,08; 80,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,9; 78,92</t>
+          <t>75,86; 78,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,1; 96,47</t>
+          <t>95,05; 96,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,1; 68,36</t>
+          <t>65,9; 68,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,23; 76,46</t>
+          <t>74,4; 76,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73,91; 75,89</t>
+          <t>73,76; 75,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>94,51; 95,65</t>
+          <t>94,45; 95,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>72,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>75,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>82,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,82%</t>
+          <t>75,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>79,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>95,43%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,02; 86,16</t>
+          <t>69,01; 75,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,08; 82,95</t>
+          <t>72,61; 79,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,51; 77,25</t>
+          <t>70,5; 77,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,3; 93,28</t>
+          <t>92,04; 96,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,72; 87,18</t>
+          <t>74,59; 80,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,8; 92,59</t>
+          <t>79,67; 85,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,26; 79,6</t>
+          <t>72,32; 78,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91,99; 97,73</t>
+          <t>94,35; 97,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,18; 84,6</t>
+          <t>72,77; 77,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>76,17; 86,13</t>
+          <t>76,88; 81,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63,89; 76,4</t>
+          <t>72,44; 77,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,43; 94,94</t>
+          <t>94,13; 96,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>77,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>76,46%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>74,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,54%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,43; 74,79</t>
+          <t>59,22; 65,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,99; 79,31</t>
+          <t>67,86; 73,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,8; 78,84</t>
+          <t>68,89; 74,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 97,96</t>
+          <t>94,11; 98,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,44; 80,77</t>
+          <t>65,31; 71,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,87; 84,66</t>
+          <t>74,57; 79,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,4; 79,93</t>
+          <t>73,97; 79,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,12; 97,21</t>
+          <t>95,98; 97,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,78; 76,75</t>
+          <t>63,25; 67,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75,93; 81,2</t>
+          <t>71,88; 76,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,3; 78,57</t>
+          <t>72,3; 76,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,73; 97,24</t>
+          <t>95,45; 97,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>66,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>70,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,31%</t>
+          <t>74,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>73,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>64,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>74,03%</t>
+          <t>70,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>74,32%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>93,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,22; 65,53</t>
+          <t>54,13; 61,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>67,86; 73,79</t>
+          <t>62,2; 69,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,89; 74,96</t>
+          <t>62,79; 70,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,92; 96,96</t>
+          <t>89,91; 94,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,31; 71,72</t>
+          <t>67,21; 74,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>74,57; 79,96</t>
+          <t>71,39; 77,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,97; 79,28</t>
+          <t>69,44; 76,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,08; 98,01</t>
+          <t>92,28; 97,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,25; 67,7</t>
+          <t>61,78; 66,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,88; 76,01</t>
+          <t>67,86; 72,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,3; 76,13</t>
+          <t>67,45; 72,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>95,38; 97,24</t>
+          <t>92,06; 96,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>72,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,75%</t>
+          <t>75,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>69,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>54,13; 61,55</t>
+          <t>58,03; 64,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>62,2; 69,42</t>
+          <t>69,45; 75,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,28</t>
+          <t>72,94; 78,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,31; 94,93</t>
+          <t>91,08; 94,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,21; 74,08</t>
+          <t>66,2; 71,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,39; 77,97</t>
+          <t>80,82; 85,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,44; 76,24</t>
+          <t>80,26; 84,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,0; 96,35</t>
+          <t>94,38; 96,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,78; 66,75</t>
+          <t>63,43; 67,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,86; 72,75</t>
+          <t>76,32; 80,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>67,45; 72,28</t>
+          <t>77,68; 81,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,25</t>
+          <t>93,48; 95,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>71,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>72,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,13%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,41%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>77,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>75,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,03; 64,27</t>
+          <t>61,68; 64,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,45; 75,52</t>
+          <t>69,56; 72,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,94; 78,56</t>
+          <t>70,84; 73,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,37; 94,99</t>
+          <t>93,36; 95,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,2; 71,91</t>
+          <t>69,41; 72,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,82; 85,65</t>
+          <t>78,08; 80,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,26; 84,93</t>
+          <t>75,86; 78,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,16; 96,65</t>
+          <t>95,08; 96,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,43; 67,63</t>
+          <t>65,9; 68,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>76,32; 80,09</t>
+          <t>74,4; 76,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,68; 81,12</t>
+          <t>73,76; 75,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,55; 95,54</t>
+          <t>94,49; 95,91</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>63,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>71,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>72,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>94,28%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>71,09%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>79,56%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>77,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>95,79%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>67,22%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>75,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>74,91%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>95,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>61,68; 64,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>69,56; 72,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>70,84; 73,99</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>93,34; 95,23</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>69,41; 72,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>78,08; 80,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>75,86; 78,75</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>95,05; 96,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>65,9; 68,27</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>74,4; 76,46</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>73,76; 75,88</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>94,45; 95,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,01; 75,7</t>
+          <t>68,87; 75,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,61; 79,02</t>
+          <t>72,21; 79,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,5; 77,8</t>
+          <t>70,78; 77,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,04; 96,53</t>
+          <t>92,09; 96,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,59; 80,66</t>
+          <t>74,65; 80,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,67; 85,42</t>
+          <t>79,42; 85,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,32; 78,75</t>
+          <t>72,43; 79,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,35; 97,04</t>
+          <t>94,44; 97,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72,77; 77,17</t>
+          <t>72,79; 77,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>76,88; 81,47</t>
+          <t>76,96; 81,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>72,44; 77,24</t>
+          <t>72,52; 77,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,13; 96,49</t>
+          <t>94,09; 96,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,22; 65,53</t>
+          <t>59,04; 65,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,86; 73,79</t>
+          <t>67,6; 73,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,89; 74,96</t>
+          <t>68,77; 74,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,11; 98,04</t>
+          <t>94,07; 98,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,31; 71,72</t>
+          <t>65,56; 71,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,57; 79,96</t>
+          <t>74,38; 79,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,97; 79,28</t>
+          <t>73,93; 79,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,98; 97,96</t>
+          <t>95,97; 97,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,25; 67,7</t>
+          <t>63,4; 67,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,88; 76,01</t>
+          <t>71,91; 75,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,3; 76,13</t>
+          <t>72,17; 76,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,45; 97,8</t>
+          <t>95,43; 97,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,13; 61,55</t>
+          <t>54,02; 62,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,2; 69,42</t>
+          <t>62,24; 69,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,79; 70,28</t>
+          <t>62,93; 70,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,91; 94,83</t>
+          <t>89,73; 94,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,21; 74,08</t>
+          <t>67,05; 73,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,39; 77,97</t>
+          <t>71,34; 77,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>69,44; 76,24</t>
+          <t>69,78; 76,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,28; 97,33</t>
+          <t>92,4; 97,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,78; 66,75</t>
+          <t>61,7; 66,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,86; 72,75</t>
+          <t>67,94; 72,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>67,45; 72,28</t>
+          <t>67,55; 72,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>92,06; 96,05</t>
+          <t>92,03; 96,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,03; 64,27</t>
+          <t>58,39; 64,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,45; 75,52</t>
+          <t>69,53; 75,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,94; 78,56</t>
+          <t>72,82; 78,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,08; 94,93</t>
+          <t>91,26; 95,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,2; 71,91</t>
+          <t>66,01; 71,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>80,82; 85,65</t>
+          <t>80,95; 85,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,26; 84,93</t>
+          <t>80,05; 84,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,38; 96,93</t>
+          <t>94,23; 96,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,43; 67,63</t>
+          <t>63,25; 67,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,32; 80,09</t>
+          <t>76,25; 79,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>77,68; 81,12</t>
+          <t>77,49; 81,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,48; 95,69</t>
+          <t>93,4; 95,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,67; 64,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,56; 72,74</t>
+          <t>69,43; 72,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70,84; 73,99</t>
+          <t>70,68; 73,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>93,36; 95,67</t>
+          <t>93,28; 95,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,51; 72,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,86</t>
+          <t>78,13; 80,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,86; 78,75</t>
+          <t>75,83; 78,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,08; 96,67</t>
+          <t>95,11; 96,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,12; 68,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,46</t>
+          <t>74,39; 76,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,76; 75,88</t>
+          <t>73,86; 76,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>94,49; 95,91</t>
+          <t>94,5; 95,88</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>502334</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>531184</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>496894</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>601422</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>535957</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>576029</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>506970</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>647120</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1038291</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1107212</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1003864</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1248543</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>477963; 524816</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>507194; 554957</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>474739; 521288</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>583525; 612612</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>513872; 555554</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>553625; 595852</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>485259; 529754</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>637169; 654879</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1006234; 1069630</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1077014; 1136728</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>972234; 1035210</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1231002; 1262371</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1427</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>597888</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>716847</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>734213</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1145511</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>665142</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>795621</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>799091</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>928285</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1263030</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1512469</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1533304</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2073796</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>567808; 631046</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>685432; 743288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>702372; 760505</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1121391; 1169047</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>634190; 694118</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>765406; 820886</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>770248; 826650</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>917598; 935915</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1223150; 1306775</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1469196; 1550385</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1488914; 1577303</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2049946; 2097727</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>393079</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>499284</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>500216</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>652569</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>482443</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>578754</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>568464</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>886008</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>875522</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1078038</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1068680</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1538576</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>366504; 420796</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>470257; 527052</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>471578; 528663</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>632289; 667241</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>458530; 505506</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>553647; 602923</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>543236; 593679</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>862389; 908154</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>840628; 911858</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1040589; 1114527</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1032117; 1104448</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1507556; 1573868</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1485</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1485</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>577830</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>685976</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>710286</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>864395</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>718028</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>872633</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>856269</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1046802</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1295858</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1558609</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1566554</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1911197</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>549704; 604488</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>658923; 714495</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>681369; 736344</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>845008; 880861</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>685637; 745542</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>846876; 897967</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>830547; 880750</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1030589; 1059186</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1252284; 1339555</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1520417; 1594482</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1529039; 1600951</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1886346; 1931276</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4876</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8356</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2071131</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2433291</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2441609</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3263898</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2401570</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2823037</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2730794</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3508214</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4472702</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5256329</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5172404</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6772113</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2020001; 2127929</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2374322; 2489775</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2387089; 2492301</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3224246; 3309373</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2348146; 2448706</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2772284; 2869809</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2674960; 2783475</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3479048; 3535562</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4399546; 4548708</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5183656; 5327193</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5100246; 5252136</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6722945; 6821331</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>